--- a/biology/Zoologie/Automeris_denticulatus/Automeris_denticulatus.xlsx
+++ b/biology/Zoologie/Automeris_denticulatus/Automeris_denticulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Automeris denticulatus est une espèce de papillons de la famille des Saturniidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Automeris denticulatus a été décrite en 1906 par le naturaliste français Albert Conte (d) (1873-?).
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description, l'auteur indique que cette espèce est originaire de l'Amazone[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description, l'auteur indique que cette espèce est originaire de l'Amazone.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype d’Automeris denticulatus présente une envergure de 9 cm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype d’Automeris denticulatus présente une envergure de 9 cm.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fr) Conte, 1906 : Essai de classification des lépidoptères producteurs de soie. Laboratoire d'études de la soie, vol. 5, p. 1-121 (lire en ligne).</t>
         </is>
